--- a/processing/final/benchmark_2mw/dstat.xlsx
+++ b/processing/final/benchmark_2mw/dstat.xlsx
@@ -2,19 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob_beckmann/Documents/_uni/eth/_courses/2017/autumn/advanced_sys_lab/gitlab/asl-fall17-project/processing/final/benchmark_2mw/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36800" yWindow="660" windowWidth="34620" windowHeight="18900" tabRatio="500"/>
+    <workbookView xWindow="960" yWindow="660" windowWidth="34620" windowHeight="18900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="dstat" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="dstat" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="18">
   <si>
     <t>Operation</t>
   </si>
@@ -70,6 +74,18 @@
   <si>
     <t>server</t>
   </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Sum of Average Network write</t>
+  </si>
 </sst>
 </file>
 
@@ -104,9 +120,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +143,3007 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43080.955538888891" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="216">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:K217" sheet="dstat"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Operation" numFmtId="20">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1899-12-30T00:01:00" maxDate="1899-12-30T01:00:00" count="2">
+        <d v="1899-12-30T00:01:00"/>
+        <d v="1899-12-30T01:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sharded" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Workers" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="64" count="4">
+        <n v="8"/>
+        <n v="16"/>
+        <n v="32"/>
+        <n v="64"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Clients" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="56" count="9">
+        <n v="2"/>
+        <n v="4"/>
+        <n v="8"/>
+        <n v="16"/>
+        <n v="24"/>
+        <n v="32"/>
+        <n v="40"/>
+        <n v="48"/>
+        <n v="56"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Machine type" numFmtId="0">
+      <sharedItems count="3">
+        <s v="mw"/>
+        <s v="client"/>
+        <s v="server"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Average CPU usage" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.1229166666700001" maxValue="70.241666666699999"/>
+    </cacheField>
+    <cacheField name="Std CPU usage" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.424607869069" maxValue="7.5956859100700003"/>
+    </cacheField>
+    <cacheField name="Average Network receive" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="189604.16666700001" maxValue="20520833.333299998"/>
+    </cacheField>
+    <cacheField name="Std Network receive" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1849284.9473000001"/>
+    </cacheField>
+    <cacheField name="Average Network write" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="189633.33333299999" maxValue="20583333.333299998"/>
+    </cacheField>
+    <cacheField name="Std Network write" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1178315.1388900001"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="216">
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.1229166666700001"/>
+    <n v="0.49237773083000003"/>
+    <n v="1369791.8479200001"/>
+    <n v="57292.480174900003"/>
+    <n v="1369826.98125"/>
+    <n v="57265.472669499999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="11.1166666667"/>
+    <n v="0.440878805293"/>
+    <n v="2535400"/>
+    <n v="62822.868438799997"/>
+    <n v="189633.33333299999"/>
+    <n v="4674.9775302799999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="9.9333333333299993"/>
+    <n v="0.74327741932699998"/>
+    <n v="189604.16666700001"/>
+    <n v="4233.7116512599996"/>
+    <n v="2535675"/>
+    <n v="56693.018816800002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5.7083333333299997"/>
+    <n v="0.64495227093700003"/>
+    <n v="3002358.3333299998"/>
+    <n v="116144.924686"/>
+    <n v="3002397.9166700002"/>
+    <n v="116240.20153999999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="19.270833333300001"/>
+    <n v="0.53062007619399998"/>
+    <n v="5614645.8333299998"/>
+    <n v="113904.052496"/>
+    <n v="419837.5"/>
+    <n v="8531.07066356"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="16.412500000000001"/>
+    <n v="0.72961032313700003"/>
+    <n v="419837.5"/>
+    <n v="9988.4594096599994"/>
+    <n v="5615387.5"/>
+    <n v="133680.85979300001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.5854166666699996"/>
+    <n v="0.60645481880999996"/>
+    <n v="5139206.25"/>
+    <n v="188947.24675399999"/>
+    <n v="5139229.1666700002"/>
+    <n v="188760.59293499999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="27.758333333300001"/>
+    <n v="0.67291376826600002"/>
+    <n v="9525754.1666700002"/>
+    <n v="254213.02817800001"/>
+    <n v="713729.16666700004"/>
+    <n v="20255.963595500001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="23.212499999999999"/>
+    <n v="0.876708699318"/>
+    <n v="713654.16666700004"/>
+    <n v="17604.295901199999"/>
+    <n v="9529054.1666700002"/>
+    <n v="223587.917392"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="9.1145833333299997"/>
+    <n v="0.62055380533600002"/>
+    <n v="6569425"/>
+    <n v="106882.521244"/>
+    <n v="6569433.3333299998"/>
+    <n v="106796.079855"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="32.125"/>
+    <n v="0.67583359997299997"/>
+    <n v="11987500"/>
+    <n v="63727.399402399999"/>
+    <n v="913116.66666700004"/>
+    <n v="4843.2823545900001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="25.666666666699999"/>
+    <n v="0.83185522920900001"/>
+    <n v="913054.16666700004"/>
+    <n v="4313.1447111799998"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="7.4312500000000004"/>
+    <n v="0.71830288637100004"/>
+    <n v="6559052.0833299998"/>
+    <n v="74666.1231979"/>
+    <n v="6559095.8333299998"/>
+    <n v="74753.287492000003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="31.041666666699999"/>
+    <n v="0.60558813574500003"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+    <n v="913033.33333299996"/>
+    <n v="2995.8245673400002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="24.5916666667"/>
+    <n v="0.90159258998299996"/>
+    <n v="912950"/>
+    <n v="2534.7653070299998"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="7.3708333333300002"/>
+    <n v="0.69505739474999995"/>
+    <n v="6531077.0833299998"/>
+    <n v="51447.622947999997"/>
+    <n v="6531137.5"/>
+    <n v="51402.727049300003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="31.487500000000001"/>
+    <n v="0.83344935901100003"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+    <n v="913100"/>
+    <n v="2525.4819484099999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="24.725000000000001"/>
+    <n v="0.79338864467000003"/>
+    <n v="913079.16666700004"/>
+    <n v="2647.74072415"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="7.2937500000000002"/>
+    <n v="0.72052672072199997"/>
+    <n v="6537131.25"/>
+    <n v="65966.229126699996"/>
+    <n v="6537122.9166700002"/>
+    <n v="65736.8531066"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="31.45"/>
+    <n v="0.95628794750199997"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+    <n v="912979.16666700004"/>
+    <n v="2585.4421772199998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="24.504166666700002"/>
+    <n v="0.79377633626300004"/>
+    <n v="912975"/>
+    <n v="1743.6039434700001"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7.2645833333300001"/>
+    <n v="0.802463572264"/>
+    <n v="6566100"/>
+    <n v="60097.673663399997"/>
+    <n v="6566175"/>
+    <n v="60139.616627000003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="31.579166666700001"/>
+    <n v="0.80039327534500004"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+    <n v="912687.5"/>
+    <n v="2726.30760637"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="24.637499999999999"/>
+    <n v="0.93561167067999995"/>
+    <n v="912595.83333299996"/>
+    <n v="2241.2158582400002"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="7.3812499999999996"/>
+    <n v="1.0400536033700001"/>
+    <n v="6503260.4166700002"/>
+    <n v="77853.602578299993"/>
+    <n v="6503333.3333299998"/>
+    <n v="77577.373925299995"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="31.770833333300001"/>
+    <n v="0.89000347666000001"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="912945.83333299996"/>
+    <n v="2915.3282040399999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="24.729166666699999"/>
+    <n v="0.90333613588899997"/>
+    <n v="912812.5"/>
+    <n v="2375.9482524800001"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.4312499999999999"/>
+    <n v="0.497316108965"/>
+    <n v="1688106.25"/>
+    <n v="44930.257282999999"/>
+    <n v="1688168.75"/>
+    <n v="44794.910784300002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="13.2583333333"/>
+    <n v="0.45616576058000002"/>
+    <n v="3140262.5"/>
+    <n v="58367.276291000002"/>
+    <n v="234866.66666700001"/>
+    <n v="4408.34140923"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.7125"/>
+    <n v="0.71500641760399997"/>
+    <n v="234900"/>
+    <n v="4136.6938836400004"/>
+    <n v="3139908.3333299998"/>
+    <n v="57016.467505499997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5.8250000000000002"/>
+    <n v="0.57178133575800005"/>
+    <n v="3069041.6666700002"/>
+    <n v="94888.536653200004"/>
+    <n v="3069131.25"/>
+    <n v="94797.503089200007"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="19.612500000000001"/>
+    <n v="0.56240329689199997"/>
+    <n v="5682837.5"/>
+    <n v="106713.135893"/>
+    <n v="424987.5"/>
+    <n v="7949.2843488999997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="16.7833333333"/>
+    <n v="0.80277297191899999"/>
+    <n v="424950"/>
+    <n v="8784.8322166399994"/>
+    <n v="5683600"/>
+    <n v="118401.86878400001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.8562499999999993"/>
+    <n v="0.58144283773899996"/>
+    <n v="5282302.0833299998"/>
+    <n v="185495.021549"/>
+    <n v="5282295.8333299998"/>
+    <n v="185747.47307000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="28.4375"/>
+    <n v="0.73220809336100001"/>
+    <n v="9707512.5"/>
+    <n v="208133.05778599999"/>
+    <n v="730150"/>
+    <n v="18866.389346600001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="23.787500000000001"/>
+    <n v="0.876708699318"/>
+    <n v="730020.83333299996"/>
+    <n v="17657.894785100001"/>
+    <n v="9712808.3333299998"/>
+    <n v="195623.10396400001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10.35"/>
+    <n v="0.55092302039600005"/>
+    <n v="6589685.4166700002"/>
+    <n v="90575.232321500007"/>
+    <n v="6589743.75"/>
+    <n v="90857.2934905"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="31.166666666699999"/>
+    <n v="0.60238625342200003"/>
+    <n v="11991666.6667"/>
+    <n v="52369.991729599999"/>
+    <n v="912791.66666700004"/>
+    <n v="4360.1490961500003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="25.758333333300001"/>
+    <n v="0.75561656905999997"/>
+    <n v="912833.33333299996"/>
+    <n v="4641.88719563"/>
+    <n v="11991666.6667"/>
+    <n v="52369.991729599999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="9.2583333333300004"/>
+    <n v="0.64407938639399998"/>
+    <n v="6557410.4166700002"/>
+    <n v="129944.58124100001"/>
+    <n v="6557445.8333299998"/>
+    <n v="129900.24241000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="30.066666666700002"/>
+    <n v="0.82062032726400003"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="913079.16666700004"/>
+    <n v="2570.6576183400002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="24.816666666700002"/>
+    <n v="0.68518581872999995"/>
+    <n v="913012.5"/>
+    <n v="2932.64460173"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="8.5541666666699996"/>
+    <n v="0.93823869163200002"/>
+    <n v="6535006.25"/>
+    <n v="79215.671902300004"/>
+    <n v="6535118.75"/>
+    <n v="78988.690433600001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="29.120833333299998"/>
+    <n v="0.94018544120500003"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="913095.83333299996"/>
+    <n v="1850.3762874199999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="23.758333333300001"/>
+    <n v="0.84356586910999998"/>
+    <n v="912962.5"/>
+    <n v="2241.4041146300001"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="7.65"/>
+    <n v="0.56104182775400002"/>
+    <n v="6563075"/>
+    <n v="77375.483657100005"/>
+    <n v="6563152.0833299998"/>
+    <n v="77200.130780399995"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="28.4375"/>
+    <n v="0.61758968440600004"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="913379.16666700004"/>
+    <n v="2260.6172376899999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="23.204166666700001"/>
+    <n v="0.925485009882"/>
+    <n v="913279.16666700004"/>
+    <n v="2272.2218783399999"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="7.4208333333300001"/>
+    <n v="0.600617942455"/>
+    <n v="6555577.0833299998"/>
+    <n v="67518.502666700006"/>
+    <n v="6555610.4166700002"/>
+    <n v="67469.125843999995"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="28.491666666699999"/>
+    <n v="0.76486671848499999"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="913000"/>
+    <n v="2086.0530770400001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="22.995833333299998"/>
+    <n v="0.85601002596800002"/>
+    <n v="912933.33333299996"/>
+    <n v="1678.35563488"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="7.4583333333299997"/>
+    <n v="0.66057342008200004"/>
+    <n v="6543425"/>
+    <n v="61976.9131509"/>
+    <n v="6543456.25"/>
+    <n v="62020.780192099999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="28.7"/>
+    <n v="0.76417684126499996"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="913058.33333299996"/>
+    <n v="2025.00195343"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="22.787500000000001"/>
+    <n v="0.74298169579200002"/>
+    <n v="912937.5"/>
+    <n v="2441.4918717400001"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.5645833333299999"/>
+    <n v="0.64221714564900001"/>
+    <n v="1669810.4166699999"/>
+    <n v="48340.780335299998"/>
+    <n v="1671260.4166699999"/>
+    <n v="47304.619594600001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="13.0625"/>
+    <n v="0.424607869069"/>
+    <n v="3102262.5"/>
+    <n v="72599.080049600001"/>
+    <n v="232033.33333299999"/>
+    <n v="5472.2416771600001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.791666666699999"/>
+    <n v="0.85087032468099999"/>
+    <n v="234883.33333299999"/>
+    <n v="4062.8328058000002"/>
+    <n v="3102495.8333299998"/>
+    <n v="66267.793964199998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5.8916666666699999"/>
+    <n v="0.71899093222300003"/>
+    <n v="3021183.3333299998"/>
+    <n v="96557.003852499998"/>
+    <n v="3021808.3333299998"/>
+    <n v="96059.515145900004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="19.4666666667"/>
+    <n v="0.56528747525199996"/>
+    <n v="5611395.8333299998"/>
+    <n v="147877.76810700001"/>
+    <n v="419650"/>
+    <n v="11066.720044600001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="16.958333333300001"/>
+    <n v="0.84256490065400003"/>
+    <n v="420979.16666699998"/>
+    <n v="8559.27355876"/>
+    <n v="5612645.8333299998"/>
+    <n v="121911.375707"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.9604166666699996"/>
+    <n v="0.61466132488000003"/>
+    <n v="5193641.6666700002"/>
+    <n v="211534.85895699999"/>
+    <n v="5193850"/>
+    <n v="211332.20127699999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="28.354166666699999"/>
+    <n v="0.70828679420200003"/>
+    <n v="9658204.1666700002"/>
+    <n v="217154.64356699999"/>
+    <n v="724958.33333299996"/>
+    <n v="18309.2188933"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="24.074999999999999"/>
+    <n v="0.91398726166499999"/>
+    <n v="725241.66666700004"/>
+    <n v="19198.714722000001"/>
+    <n v="9655075"/>
+    <n v="222161.31146600001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10.802083333300001"/>
+    <n v="0.53898231315699996"/>
+    <n v="6534631.25"/>
+    <n v="98744.173905500007"/>
+    <n v="6534722.9166700002"/>
+    <n v="98710.561366499998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="31.541666666699999"/>
+    <n v="0.65038125787199996"/>
+    <n v="11987500"/>
+    <n v="63727.399402399999"/>
+    <n v="913216.66666700004"/>
+    <n v="5715.9928131200004"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="26.258333333300001"/>
+    <n v="0.74057604826400003"/>
+    <n v="913333.33333299996"/>
+    <n v="4337.7128145300003"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="10.3833333333"/>
+    <n v="0.498521019367"/>
+    <n v="6525822.9166700002"/>
+    <n v="101950.13860799999"/>
+    <n v="6525879.1666700002"/>
+    <n v="101897.31385200001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="29.537500000000001"/>
+    <n v="0.76765438117999996"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="913054.16666700004"/>
+    <n v="2052.36904723"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="25.0916666667"/>
+    <n v="0.79904126799599995"/>
+    <n v="912995.83333299996"/>
+    <n v="3077.29480539"/>
+    <n v="11995833.3333"/>
+    <n v="37267.799625"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="10.0083333333"/>
+    <n v="0.54015937638699996"/>
+    <n v="6548043.75"/>
+    <n v="95078.713943299997"/>
+    <n v="6548070.8333299998"/>
+    <n v="95246.795336099996"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="28.587499999999999"/>
+    <n v="0.70009794372099998"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="913208.33333299996"/>
+    <n v="1911.0861706400001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="24.433333333299998"/>
+    <n v="0.76380865196799996"/>
+    <n v="913183.33333299996"/>
+    <n v="2154.3140247000001"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="9.4395833333300008"/>
+    <n v="1.04580191843"/>
+    <n v="6553643.75"/>
+    <n v="105152.209494"/>
+    <n v="6553735.4166700002"/>
+    <n v="104735.39995599999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="27.975000000000001"/>
+    <n v="0.76999826474300004"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="915037.5"/>
+    <n v="2230.7111944799999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="24.241666666699999"/>
+    <n v="0.74813410652800005"/>
+    <n v="914987.5"/>
+    <n v="2423.1906701500002"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="9.1166666666699996"/>
+    <n v="0.64978628965399998"/>
+    <n v="6587854.1666700002"/>
+    <n v="84011.553919600003"/>
+    <n v="6587912.5"/>
+    <n v="84161.233375199998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="27.7166666667"/>
+    <n v="0.76141108177100003"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="928783.33333299996"/>
+    <n v="3662.2912136899999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="23.695833333300001"/>
+    <n v="0.76342877077399995"/>
+    <n v="928754.16666700004"/>
+    <n v="3620.4388346999999"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="9.2604166666700003"/>
+    <n v="0.55362489776599999"/>
+    <n v="6596829.1666700002"/>
+    <n v="69022.031048399993"/>
+    <n v="6596810.4166700002"/>
+    <n v="68655.537296800001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="28.483333333299999"/>
+    <n v="0.86484716502199999"/>
+    <n v="12000000"/>
+    <n v="0"/>
+    <n v="953341.66666700004"/>
+    <n v="5671.2503179400001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="23.925000000000001"/>
+    <n v="0.87948169111499996"/>
+    <n v="953066.66666700004"/>
+    <n v="5486.8209318400004"/>
+    <n v="12000000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.2520833333299999"/>
+    <n v="0.46765548494800002"/>
+    <n v="1234832.8354199999"/>
+    <n v="60039.002223800002"/>
+    <n v="1294292.9729200001"/>
+    <n v="61774.610826600001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="11.1833333333"/>
+    <n v="0.48869066432699998"/>
+    <n v="2279312.5"/>
+    <n v="83665.050226499996"/>
+    <n v="189929.16666700001"/>
+    <n v="4385.0191685199998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="11.3833333333"/>
+    <n v="0.81838921067000003"/>
+    <n v="307845.83333300002"/>
+    <n v="7170.0156535799997"/>
+    <n v="2279945.8333299998"/>
+    <n v="88059.490244300003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5.9874999999999998"/>
+    <n v="0.73575310403600003"/>
+    <n v="2641358.3333299998"/>
+    <n v="143855.31756200001"/>
+    <n v="2653579.1666700002"/>
+    <n v="142692.68310200001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="19.3416666667"/>
+    <n v="0.709539182085"/>
+    <n v="4808470.8333299998"/>
+    <n v="301086.59614600003"/>
+    <n v="418695.83333300002"/>
+    <n v="10882.338851300001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="17.4375"/>
+    <n v="0.74175022048700001"/>
+    <n v="444829.16666699998"/>
+    <n v="7073.4530247499997"/>
+    <n v="4810120.8333299998"/>
+    <n v="291882.28193599998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9.2458333333299993"/>
+    <n v="0.57244202624999996"/>
+    <n v="4347104.1666700002"/>
+    <n v="332621.35077600001"/>
+    <n v="4353947.9166700002"/>
+    <n v="331517.30792300001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="28.545833333299999"/>
+    <n v="0.87349428413499997"/>
+    <n v="7977395.8333299998"/>
+    <n v="612865.05948399997"/>
+    <n v="721541.66666700004"/>
+    <n v="23374.188163300001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="25.504166666700002"/>
+    <n v="0.78844280290099999"/>
+    <n v="732858.33333299996"/>
+    <n v="17614.625603799999"/>
+    <n v="7983829.1666700002"/>
+    <n v="600691.14200500003"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="12.5395833333"/>
+    <n v="0.67933312526099998"/>
+    <n v="6464243.75"/>
+    <n v="286530.03434100002"/>
+    <n v="6467400"/>
+    <n v="285752.30562300002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="37.604166666700003"/>
+    <n v="1.6035243796100001"/>
+    <n v="11578900"/>
+    <n v="585625.23694199999"/>
+    <n v="1085908.3333300001"/>
+    <n v="44585.951853400002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="31.875"/>
+    <n v="1.4411815359"/>
+    <n v="1091333.3333300001"/>
+    <n v="43708.888660800003"/>
+    <n v="11573170.8333"/>
+    <n v="572871.69373199996"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="15.358333333299999"/>
+    <n v="0.787159610984"/>
+    <n v="1715218.75"/>
+    <n v="353639.93702499999"/>
+    <n v="1719754.1666699999"/>
+    <n v="353339.43547700002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="42.462499999999999"/>
+    <n v="2.0769268585599998"/>
+    <n v="2596187.5"/>
+    <n v="1182348.1783100001"/>
+    <n v="1314204.1666699999"/>
+    <n v="61275.552808699998"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="34.116666666699999"/>
+    <n v="1.5225450600599999"/>
+    <n v="1323300"/>
+    <n v="56782.150877100001"/>
+    <n v="2614100"/>
+    <n v="1178315.1388900001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="16.862500000000001"/>
+    <n v="0.86084338653799997"/>
+    <n v="1318262.5"/>
+    <n v="29537.894026900001"/>
+    <n v="1321379.1666699999"/>
+    <n v="28550.335235400002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="46.737499999999997"/>
+    <n v="2.9072361101699999"/>
+    <n v="1208091.6666699999"/>
+    <n v="23744.4774836"/>
+    <n v="1427358.3333300001"/>
+    <n v="27995.216338400001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="35.462499999999999"/>
+    <n v="1.0345558985300001"/>
+    <n v="1434316.6666699999"/>
+    <n v="26007.945340099999"/>
+    <n v="1208191.6666699999"/>
+    <n v="23005.275185400002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="17.735416666700001"/>
+    <n v="0.86610406520100003"/>
+    <n v="1415664.5833300001"/>
+    <n v="38803.4327739"/>
+    <n v="1418347.9166699999"/>
+    <n v="37913.164105399999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="48.512500000000003"/>
+    <n v="1.43292973417"/>
+    <n v="1289400"/>
+    <n v="27983.841027499999"/>
+    <n v="1523270.8333300001"/>
+    <n v="32920.442554399997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="36.791666666700003"/>
+    <n v="0.82740507378100003"/>
+    <n v="1528487.5"/>
+    <n v="27134.500837899999"/>
+    <n v="1288845.8333300001"/>
+    <n v="24216.205227900002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="17.850000000000001"/>
+    <n v="0.910016151075"/>
+    <n v="1479577.0833300001"/>
+    <n v="39259.307296300001"/>
+    <n v="1481989.5833300001"/>
+    <n v="37796.621937999997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="52.145833333299997"/>
+    <n v="1.1987379087400001"/>
+    <n v="1345583.3333300001"/>
+    <n v="25653.566715600002"/>
+    <n v="1589675"/>
+    <n v="30233.920416299999"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="37.829166666699997"/>
+    <n v="1.05141221754"/>
+    <n v="1594879.1666699999"/>
+    <n v="27040.015341599999"/>
+    <n v="1345404.1666699999"/>
+    <n v="24050.093861900001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="18.056249999999999"/>
+    <n v="0.64136795063499996"/>
+    <n v="1530166.6666699999"/>
+    <n v="35936.124767300003"/>
+    <n v="1532079.1666699999"/>
+    <n v="34865.443329100002"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="54.316666666700002"/>
+    <n v="1.36553931068"/>
+    <n v="1394933.3333300001"/>
+    <n v="22420.316785899999"/>
+    <n v="1647837.5"/>
+    <n v="26802.396861000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="38.933333333299998"/>
+    <n v="1.00547027014"/>
+    <n v="1651254.1666699999"/>
+    <n v="24917.655879800001"/>
+    <n v="1394616.6666699999"/>
+    <n v="22117.897876399998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.5"/>
+    <n v="0.65065151811900002"/>
+    <n v="1662635.4166699999"/>
+    <n v="52913.777579900001"/>
+    <n v="1662702.0833300001"/>
+    <n v="52824.256123400002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="12.8708333333"/>
+    <n v="0.43248456310900002"/>
+    <n v="207058.33333299999"/>
+    <n v="3988.65303378"/>
+    <n v="3139333.3333299998"/>
+    <n v="59817.843510500003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="12.9666666667"/>
+    <n v="0.771503728321"/>
+    <n v="3137612.5"/>
+    <n v="69850.904987500006"/>
+    <n v="206895.83333299999"/>
+    <n v="4625.3729845400003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5.7145833333300002"/>
+    <n v="0.65934468063100005"/>
+    <n v="3020547.9166700002"/>
+    <n v="95621.316357200005"/>
+    <n v="3020614.5833299998"/>
+    <n v="95779.941442199997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="18.804166666699999"/>
+    <n v="0.589866966336"/>
+    <n v="372858.33333300002"/>
+    <n v="9047.1145286200008"/>
+    <n v="5654212.5"/>
+    <n v="136868.92765699999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="18.770833333300001"/>
+    <n v="0.75117114374899996"/>
+    <n v="5654129.1666700002"/>
+    <n v="117253.562903"/>
+    <n v="372820.83333300002"/>
+    <n v="7774.9541539299998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.6791666666699996"/>
+    <n v="0.72370695594800005"/>
+    <n v="4994604.1666700002"/>
+    <n v="153144.85842400001"/>
+    <n v="4994639.5833299998"/>
+    <n v="152977.61996700001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="26.883333333300001"/>
+    <n v="0.72740217490100001"/>
+    <n v="617020.83333299996"/>
+    <n v="15611.163353100001"/>
+    <n v="9350516.6666700002"/>
+    <n v="227119.50855699999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="26.170833333299999"/>
+    <n v="0.73680373698500001"/>
+    <n v="9353700"/>
+    <n v="209099.150096"/>
+    <n v="617045.83333299996"/>
+    <n v="14028.2760213"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="10.80625"/>
+    <n v="0.70183792772499998"/>
+    <n v="7527722.9166700002"/>
+    <n v="282434.680528"/>
+    <n v="7527789.5833299998"/>
+    <n v="282331.33289800002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="36.545833333300003"/>
+    <n v="0.95207782246399997"/>
+    <n v="932770.83333299996"/>
+    <n v="29903.059209200001"/>
+    <n v="13816666.6667"/>
+    <n v="502874.99739999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="34.433333333299998"/>
+    <n v="1.06524166417"/>
+    <n v="13825000"/>
+    <n v="462291.120582"/>
+    <n v="932733.33333299996"/>
+    <n v="28798.021107199998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="10.4020833333"/>
+    <n v="0.85012357420600004"/>
+    <n v="8512939.5833299998"/>
+    <n v="320380.22334899998"/>
+    <n v="8513043.75"/>
+    <n v="320097.35327299999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="40.9708333333"/>
+    <n v="0.90349181975000004"/>
+    <n v="1052445.8333300001"/>
+    <n v="25736.7361685"/>
+    <n v="15595833.3333"/>
+    <n v="409774.216587"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="37.366666666699999"/>
+    <n v="0.82267444894399999"/>
+    <n v="15575000"/>
+    <n v="389651.65300499997"/>
+    <n v="1052454.1666699999"/>
+    <n v="27108.898677000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="10.360416666700001"/>
+    <n v="0.79663663149800001"/>
+    <n v="8509591.6666700002"/>
+    <n v="267740.81514199998"/>
+    <n v="8509739.5833299998"/>
+    <n v="267268.86098699999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="40.983333333300003"/>
+    <n v="1.0893939527300001"/>
+    <n v="1055137.5"/>
+    <n v="26532.717045900001"/>
+    <n v="15620833.3333"/>
+    <n v="430038.594415"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="37.6"/>
+    <n v="0.99280109208199996"/>
+    <n v="15645833.3333"/>
+    <n v="435240.04402299999"/>
+    <n v="1055104.1666699999"/>
+    <n v="24759.1829702"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="10.762499999999999"/>
+    <n v="0.80512379913099996"/>
+    <n v="8658016.6666700002"/>
+    <n v="256580.801847"/>
+    <n v="8658354.1666700002"/>
+    <n v="257273.931426"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="42.629166666700002"/>
+    <n v="1.18118602343"/>
+    <n v="1068695.8333300001"/>
+    <n v="25891.8117891"/>
+    <n v="15845833.3333"/>
+    <n v="430692.21097100002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="37.987499999999997"/>
+    <n v="1.0862181648"/>
+    <n v="15845833.3333"/>
+    <n v="505785.79323200003"/>
+    <n v="1068800"/>
+    <n v="31852.976244599999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="10.625"/>
+    <n v="0.75449893023400005"/>
+    <n v="8624500"/>
+    <n v="261519.51168699999"/>
+    <n v="8624860.4166700002"/>
+    <n v="260343.26097100001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="42.774999999999999"/>
+    <n v="1.15564413271"/>
+    <n v="1071837.5"/>
+    <n v="28233.903159599999"/>
+    <n v="15895833.3333"/>
+    <n v="448763.73392799997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="38.070833333300001"/>
+    <n v="1.0682658766099999"/>
+    <n v="15875000"/>
+    <n v="466531.02308299998"/>
+    <n v="1071450"/>
+    <n v="26967.350160599999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="10.583333333300001"/>
+    <n v="0.69809868367700001"/>
+    <n v="8977493.75"/>
+    <n v="365890.81653299998"/>
+    <n v="8976429.1666700002"/>
+    <n v="364913.772038"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="45.354166666700003"/>
+    <n v="1.36290389696"/>
+    <n v="1122662.5"/>
+    <n v="29378.7284793"/>
+    <n v="16616666.6667"/>
+    <n v="456551.00324699999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="39.645833333299997"/>
+    <n v="0.96104688288899998"/>
+    <n v="16650000"/>
+    <n v="477039.628662"/>
+    <n v="1122308.3333300001"/>
+    <n v="29740.025689099999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.4104166666700002"/>
+    <n v="0.53297967572899996"/>
+    <n v="1654108.3333300001"/>
+    <n v="50725.891851"/>
+    <n v="1654252.0833300001"/>
+    <n v="50547.800786799999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="12.65"/>
+    <n v="0.477039628662"/>
+    <n v="204537.5"/>
+    <n v="5131.8737993000004"/>
+    <n v="3101533.3333299998"/>
+    <n v="77196.966192399996"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="12.9291666667"/>
+    <n v="0.77349509075"/>
+    <n v="3101225"/>
+    <n v="69924.065203000006"/>
+    <n v="204462.5"/>
+    <n v="4615.6017903900001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5.8041666666699996"/>
+    <n v="0.67960804042300005"/>
+    <n v="2998125"/>
+    <n v="109442.03039499999"/>
+    <n v="2998222.9166700002"/>
+    <n v="109301.274449"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="18.912500000000001"/>
+    <n v="0.68074533075499999"/>
+    <n v="372566.66666699998"/>
+    <n v="9709.7685960300005"/>
+    <n v="5649058.3333299998"/>
+    <n v="147375.45243500001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="19.024999999999999"/>
+    <n v="0.65340178751"/>
+    <n v="5648291.6666700002"/>
+    <n v="147748.24993399999"/>
+    <n v="372408.33333300002"/>
+    <n v="9750.3254660999992"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9.0437499999999993"/>
+    <n v="0.83974066303399997"/>
+    <n v="5168558.3333299998"/>
+    <n v="172930.08534200001"/>
+    <n v="5168720.8333299998"/>
+    <n v="173209.156621"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="27.65"/>
+    <n v="0.82147683550999995"/>
+    <n v="639825"/>
+    <n v="20462.649930899999"/>
+    <n v="9653820.8333299998"/>
+    <n v="272521.06303800002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="27.262499999999999"/>
+    <n v="0.910470041354"/>
+    <n v="9653154.1666700002"/>
+    <n v="225419.19034299999"/>
+    <n v="639766.66666700004"/>
+    <n v="17545.552527700002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="19.204166666700001"/>
+    <n v="2.7305088576399998"/>
+    <n v="7521652.0833299998"/>
+    <n v="358291.761099"/>
+    <n v="7484952.0833299998"/>
+    <n v="308182.76309199998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="35.858333333300003"/>
+    <n v="0.84489864903699996"/>
+    <n v="929837.5"/>
+    <n v="27175.369098800002"/>
+    <n v="13754166.6667"/>
+    <n v="430038.594415"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="34.495833333299998"/>
+    <n v="1.00490183971"/>
+    <n v="13762500"/>
+    <n v="441177.78053400002"/>
+    <n v="929904.16666700004"/>
+    <n v="27753.3436487"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="16.370833333299998"/>
+    <n v="1.31259585411"/>
+    <n v="8949979.1666700002"/>
+    <n v="275159.38914400002"/>
+    <n v="8950495.8333299998"/>
+    <n v="274648.27523199999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="41.691666666700002"/>
+    <n v="1.13971274788"/>
+    <n v="1100395.8333300001"/>
+    <n v="30160.661861299999"/>
+    <n v="16283333.3333"/>
+    <n v="497815.19851299998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="38.616666666699999"/>
+    <n v="1.16452485738"/>
+    <n v="16270833.3333"/>
+    <n v="533264.10415699997"/>
+    <n v="1099854.1666699999"/>
+    <n v="31667.1260793"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="9.5749999999999993"/>
+    <n v="0.95794112319000002"/>
+    <n v="7170895.8333299998"/>
+    <n v="502526.37577599997"/>
+    <n v="7168831.25"/>
+    <n v="502304.389853"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="39.2166666667"/>
+    <n v="2.8758170122700002"/>
+    <n v="1042933.3333300001"/>
+    <n v="66808.170500099994"/>
+    <n v="15473208.3333"/>
+    <n v="1012744.44966"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="64.375"/>
+    <n v="7.5956859100700003"/>
+    <n v="15121834.966700001"/>
+    <n v="1849284.9473000001"/>
+    <n v="1020547.1"/>
+    <n v="124534.551162"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="12.6541666667"/>
+    <n v="0.87341377218399996"/>
+    <n v="9611433.3333299998"/>
+    <n v="311298.77607999998"/>
+    <n v="9609402.0833299998"/>
+    <n v="309697.41334000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="42.6583333333"/>
+    <n v="2.1951070765099998"/>
+    <n v="1118233.3333300001"/>
+    <n v="54770.750969300003"/>
+    <n v="16550000"/>
+    <n v="826937.48116099997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="62.670833333300003"/>
+    <n v="4.38270920137"/>
+    <n v="16562500"/>
+    <n v="785941.43427800003"/>
+    <n v="1117845.8333300001"/>
+    <n v="50808.704519899999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="11.2270833333"/>
+    <n v="1.0899243673700001"/>
+    <n v="9032633.3333299998"/>
+    <n v="418585.79165899998"/>
+    <n v="9032810.4166700002"/>
+    <n v="420151.59405399999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="70.241666666699999"/>
+    <n v="7.0407643668300004"/>
+    <n v="1199525"/>
+    <n v="180201.003375"/>
+    <n v="17437500"/>
+    <n v="793067.27091900003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="39.558333333299998"/>
+    <n v="1.7330858310799999"/>
+    <n v="17483333.333299998"/>
+    <n v="824893.97520099999"/>
+    <n v="1180912.5"/>
+    <n v="56730.511161299997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="13.391666666700001"/>
+    <n v="0.78133104361600003"/>
+    <n v="10529260.4167"/>
+    <n v="328560.513668"/>
+    <n v="10530650"/>
+    <n v="323448.30658400001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="53.229166666700003"/>
+    <n v="1.3846595239199999"/>
+    <n v="1326437.5"/>
+    <n v="32640.0302042"/>
+    <n v="19650000"/>
+    <n v="502874.99739999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="1"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="44.254166666700002"/>
+    <n v="0.96528163544300005"/>
+    <n v="19641666.666700002"/>
+    <n v="439840.78438899998"/>
+    <n v="1326070.8333300001"/>
+    <n v="28521.795340100001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.4479166666699999"/>
+    <n v="0.52409841545799996"/>
+    <n v="1632650"/>
+    <n v="66704.512464500003"/>
+    <n v="1635760.4166699999"/>
+    <n v="64938.274509800001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="12.4333333333"/>
+    <n v="0.51802937212099998"/>
+    <n v="202554.16666700001"/>
+    <n v="5508.4499084400004"/>
+    <n v="3071591.6666700002"/>
+    <n v="84121.905631200003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="13.108333333299999"/>
+    <n v="0.88553781127099995"/>
+    <n v="3076779.1666700002"/>
+    <n v="90494.235135900002"/>
+    <n v="202550"/>
+    <n v="6140.89150883"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="6.1020833333300004"/>
+    <n v="0.82697734311100002"/>
+    <n v="3012850"/>
+    <n v="109286.20086300001"/>
+    <n v="3013920.8333299998"/>
+    <n v="108337.74731399999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="19.116666666699999"/>
+    <n v="0.74270952614399999"/>
+    <n v="374437.5"/>
+    <n v="13120.1945191"/>
+    <n v="5678237.5"/>
+    <n v="199138.11612399999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="19.329166666700001"/>
+    <n v="0.87550467663999998"/>
+    <n v="5679991.6666700002"/>
+    <n v="186592.910195"/>
+    <n v="374404.16666699998"/>
+    <n v="12396.938707200001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9.0625"/>
+    <n v="0.58121979981399996"/>
+    <n v="5331020.8333299998"/>
+    <n v="203956.18337399999"/>
+    <n v="5331447.9166700002"/>
+    <n v="203306.821253"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="28.3416666667"/>
+    <n v="0.80255394024600002"/>
+    <n v="656620.83333299996"/>
+    <n v="19653.7355579"/>
+    <n v="9812350"/>
+    <n v="229955.58123000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="28.362500000000001"/>
+    <n v="0.87180197173399998"/>
+    <n v="9816358.3333299998"/>
+    <n v="245466.76897199999"/>
+    <n v="656737.5"/>
+    <n v="20705.400869699999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="13.4291666667"/>
+    <n v="1.1790407672300001"/>
+    <n v="7989389.5833299998"/>
+    <n v="301803.88857900002"/>
+    <n v="7989729.1666700002"/>
+    <n v="301570.51568700001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="38.241666666699999"/>
+    <n v="0.92012198787699995"/>
+    <n v="986275"/>
+    <n v="30673.856018400002"/>
+    <n v="14570833.3333"/>
+    <n v="453750.58360700001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="36.929166666699999"/>
+    <n v="1.1108640724000001"/>
+    <n v="14583333.3333"/>
+    <n v="472893.95426799997"/>
+    <n v="986216.66666700004"/>
+    <n v="31488.175620999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="15.35"/>
+    <n v="1.24117135365"/>
+    <n v="9039039.5833299998"/>
+    <n v="247786.009777"/>
+    <n v="9041125"/>
+    <n v="247464.047169"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="43.174999999999997"/>
+    <n v="0.98651241809500001"/>
+    <n v="1127266.6666699999"/>
+    <n v="26642.203969400001"/>
+    <n v="16700000"/>
+    <n v="422969.21115699998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="40.1"/>
+    <n v="1.0425544739799999"/>
+    <n v="16708333.3333"/>
+    <n v="398220.37308699999"/>
+    <n v="1126779.1666699999"/>
+    <n v="26758.278488200001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="15.7145833333"/>
+    <n v="0.860605938204"/>
+    <n v="9927920.8333299998"/>
+    <n v="294462.25270200003"/>
+    <n v="9924010.4166700002"/>
+    <n v="293842.82367200003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="48.566666666700002"/>
+    <n v="1.20640578106"/>
+    <n v="1249208.3333300001"/>
+    <n v="24241.133632199999"/>
+    <n v="18529166.666700002"/>
+    <n v="419944.90965500002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="42.837499999999999"/>
+    <n v="1.05408421402"/>
+    <n v="18495833.333299998"/>
+    <n v="386093.52983900002"/>
+    <n v="1248812.5"/>
+    <n v="23412.754752299999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="16.324999999999999"/>
+    <n v="0.79948119605199996"/>
+    <n v="10177814.5833"/>
+    <n v="297500.04549599998"/>
+    <n v="10175047.9167"/>
+    <n v="289323.73765600001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="49.7166666667"/>
+    <n v="1.3912525597300001"/>
+    <n v="1285345.8333300001"/>
+    <n v="26928.798326799999"/>
+    <n v="19020833.333299998"/>
+    <n v="444828.859773"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="43.645833333299997"/>
+    <n v="1.04517342217"/>
+    <n v="19000000"/>
+    <n v="414233.40139299998"/>
+    <n v="1284987.5"/>
+    <n v="27250.230969699998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="16.520833333300001"/>
+    <n v="0.71372667494399999"/>
+    <n v="10540414.5833"/>
+    <n v="305293.03323499998"/>
+    <n v="10534193.75"/>
+    <n v="296922.59790200001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="52.079166666699997"/>
+    <n v="1.0219032324999999"/>
+    <n v="1339745.8333300001"/>
+    <n v="26059.719565399999"/>
+    <n v="19829166.666700002"/>
+    <n v="424276.500084"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="45.208333333299997"/>
+    <n v="1.2419926369600001"/>
+    <n v="19820833.333299998"/>
+    <n v="403723.00456700003"/>
+    <n v="1339662.5"/>
+    <n v="24215.8886915"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="16.133333333300001"/>
+    <n v="0.68764462741599996"/>
+    <n v="10849772.9167"/>
+    <n v="430749.56929900002"/>
+    <n v="10848043.75"/>
+    <n v="429405.30929499998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="54.7"/>
+    <n v="1.1542132201299999"/>
+    <n v="1383004.1666699999"/>
+    <n v="25990.828943500001"/>
+    <n v="20466666.666700002"/>
+    <n v="391901.13280000002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="46.558333333299998"/>
+    <n v="1.3633488594300001"/>
+    <n v="20475000"/>
+    <n v="420216.942163"/>
+    <n v="1382845.8333300001"/>
+    <n v="26778.087046100001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="3.5666666666700002"/>
+    <n v="0.56541186462000004"/>
+    <n v="1652893.75"/>
+    <n v="67741.417233700005"/>
+    <n v="1733810.4166699999"/>
+    <n v="69823.016889799997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="12.7791666667"/>
+    <n v="0.44672192491500001"/>
+    <n v="202241.66666700001"/>
+    <n v="5591.0756194400001"/>
+    <n v="3066829.1666700002"/>
+    <n v="84969.474021400005"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="14.895833333300001"/>
+    <n v="0.91647485526700001"/>
+    <n v="3226670.8333299998"/>
+    <n v="87050.294946099995"/>
+    <n v="202225"/>
+    <n v="5668.2239111199997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="5.7416666666699996"/>
+    <n v="0.53558333407199998"/>
+    <n v="3039385.4166700002"/>
+    <n v="100212.845193"/>
+    <n v="3057825"/>
+    <n v="97468.051312800002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="19.320833333300001"/>
+    <n v="0.61267381069600002"/>
+    <n v="378145.83333300002"/>
+    <n v="10425.253844499999"/>
+    <n v="5734550"/>
+    <n v="157838.432409"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="20.2791666667"/>
+    <n v="0.84434705004999999"/>
+    <n v="5772329.1666700002"/>
+    <n v="113283.986449"/>
+    <n v="378170.83333300002"/>
+    <n v="7652.0671393399998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8.9729166666700007"/>
+    <n v="0.69326869525900003"/>
+    <n v="5303947.9166700002"/>
+    <n v="241897.854781"/>
+    <n v="5312418.75"/>
+    <n v="238201.51852499999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="28.475000000000001"/>
+    <n v="0.77727027847100005"/>
+    <n v="654379.16666700004"/>
+    <n v="22982.151929600001"/>
+    <n v="9774570.8333299998"/>
+    <n v="266658.24983400002"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="28.862500000000001"/>
+    <n v="0.92426844147099996"/>
+    <n v="9792958.3333299998"/>
+    <n v="242153.868712"/>
+    <n v="654241.66666700004"/>
+    <n v="21777.5465343"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="13.1916666667"/>
+    <n v="0.73447360523899996"/>
+    <n v="7870375"/>
+    <n v="392400.79461500002"/>
+    <n v="7876137.5"/>
+    <n v="389037.70148300001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="37.816666666700002"/>
+    <n v="0.93667274800199996"/>
+    <n v="975020.83333299996"/>
+    <n v="27927.691632400001"/>
+    <n v="14433333.3333"/>
+    <n v="445006.67673100001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="37.5"/>
+    <n v="1.0243175492200001"/>
+    <n v="14479166.6667"/>
+    <n v="436852.79635399999"/>
+    <n v="975020.83333299996"/>
+    <n v="30165.522916999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="12.0041666667"/>
+    <n v="0.75285439015199995"/>
+    <n v="9694733.3333299998"/>
+    <n v="204347.56663300001"/>
+    <n v="9699254.1666700002"/>
+    <n v="213765.54479099999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="42.891666666699997"/>
+    <n v="0.90439620159099998"/>
+    <n v="1119770.8333300001"/>
+    <n v="22807.4921531"/>
+    <n v="16591666.6667"/>
+    <n v="371165.34466499998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="40.6"/>
+    <n v="0.96986956653500001"/>
+    <n v="16591666.6667"/>
+    <n v="443661.40584700002"/>
+    <n v="1120029.1666699999"/>
+    <n v="27723.7829299"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="0"/>
+    <n v="16.210416666699999"/>
+    <n v="0.65428574664000005"/>
+    <n v="9732820.8333299998"/>
+    <n v="309081.93395199999"/>
+    <n v="9736872.9166700002"/>
+    <n v="306981.88056600001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="1"/>
+    <n v="46.954166666699997"/>
+    <n v="1.3214063066599999"/>
+    <n v="1221570.8333300001"/>
+    <n v="27671.4292962"/>
+    <n v="18095833.333299998"/>
+    <n v="431507.83940900001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <x v="2"/>
+    <n v="43.379166666700002"/>
+    <n v="0.94391790567699996"/>
+    <n v="18129166.666700002"/>
+    <n v="405634.541371"/>
+    <n v="1221254.1666699999"/>
+    <n v="25413.2784627"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="0"/>
+    <n v="16.729166666699999"/>
+    <n v="0.63221920658599995"/>
+    <n v="10365989.5833"/>
+    <n v="298730.781319"/>
+    <n v="10366322.9167"/>
+    <n v="297181.02230200003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="1"/>
+    <n v="51.120833333299998"/>
+    <n v="1.1064873907999999"/>
+    <n v="1305633.3333300001"/>
+    <n v="21347.410967"/>
+    <n v="19312500"/>
+    <n v="376316.25536299997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
+    <n v="45.825000000000003"/>
+    <n v="1.1061457266100001"/>
+    <n v="19362500"/>
+    <n v="390440.44515099999"/>
+    <n v="1305775"/>
+    <n v="23666.861293499998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+    <n v="17.077083333299999"/>
+    <n v="0.81604158890599998"/>
+    <n v="10754266.6667"/>
+    <n v="352435.57290899998"/>
+    <n v="10755962.5"/>
+    <n v="359203.72944999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="1"/>
+    <n v="53.579166666699997"/>
+    <n v="1.5668361071900001"/>
+    <n v="1362091.6666699999"/>
+    <n v="33901.8594763"/>
+    <n v="20175000"/>
+    <n v="522288.05282799999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="2"/>
+    <n v="47.629166666700002"/>
+    <n v="1.37793925713"/>
+    <n v="20166666.666700002"/>
+    <n v="491846.31631700002"/>
+    <n v="1362470.8333300001"/>
+    <n v="31887.314504400001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="0"/>
+    <n v="17.518750000000001"/>
+    <n v="0.724298851026"/>
+    <n v="10973152.0833"/>
+    <n v="360875.38922700001"/>
+    <n v="10969514.5833"/>
+    <n v="360280.40161399997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="1"/>
+    <n v="54.808333333299998"/>
+    <n v="1.4464418733"/>
+    <n v="1388050"/>
+    <n v="31356.670544299999"/>
+    <n v="20583333.333299998"/>
+    <n v="469910.36641199997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="8"/>
+    <x v="2"/>
+    <n v="48.295833333300003"/>
+    <n v="1.3354347891"/>
+    <n v="20520833.333299998"/>
+    <n v="461891.63432200003"/>
+    <n v="1387720.8333300001"/>
+    <n v="31307.083166600001"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:E15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisPage" numFmtId="20" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Average Network write" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,10 +3409,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="5" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5">
+        <v>6.9444444444444447E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
+        <v>189633.33333299999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1369826.98125</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2535675</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4095135.3145829998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>419837.5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3002397.9166700002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5615387.5</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9037622.9166700002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>713729.16666700004</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5139229.1666700002</v>
+      </c>
+      <c r="D8" s="4">
+        <v>9529054.1666700002</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15382012.500007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>913116.66666700004</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6569433.3333299998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>11995833.3333</v>
+      </c>
+      <c r="E9" s="4">
+        <v>19478383.333296999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4">
+        <v>913033.33333299996</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6559095.8333299998</v>
+      </c>
+      <c r="D10" s="4">
+        <v>11995833.3333</v>
+      </c>
+      <c r="E10" s="4">
+        <v>19467962.499963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>32</v>
+      </c>
+      <c r="B11" s="4">
+        <v>913100</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6531137.5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>11995833.3333</v>
+      </c>
+      <c r="E11" s="4">
+        <v>19440070.833300002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
+        <v>912979.16666700004</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6537122.9166700002</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>19450102.083337002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <v>912687.5</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6566175</v>
+      </c>
+      <c r="D13" s="4">
+        <v>11995833.3333</v>
+      </c>
+      <c r="E13" s="4">
+        <v>19474695.833300002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4">
+        <v>912945.83333299996</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6503333.3333299998</v>
+      </c>
+      <c r="D14" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>19416279.166662998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6801062.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>48777751.981249996</v>
+      </c>
+      <c r="D15" s="4">
+        <v>89663449.999870002</v>
+      </c>
+      <c r="E15" s="4">
+        <v>145242264.48111999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <f>B6 / 1000000</f>
+        <v>0.18963333333299998</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:D21" si="0">C6 / 1000000</f>
+        <v>1.3698269812499999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.5356749999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:D22" si="1">B7 / 1000000</f>
+        <v>0.41983749999999997</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>3.0023979166700001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>5.6153874999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:D23" si="2">B8 / 1000000</f>
+        <v>0.71372916666700004</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>5.1392291666699998</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>9.5290541666700008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:D24" si="3">B9 / 1000000</f>
+        <v>0.91311666666700009</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>6.5694333333300001</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>11.9958333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:D25" si="4">B10 / 1000000</f>
+        <v>0.91303333333299996</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>6.5590958333299998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>11.9958333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:D26" si="5">B11 / 1000000</f>
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="5"/>
+        <v>6.5311374999999998</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>11.9958333333</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:D27" si="6">B12 / 1000000</f>
+        <v>0.91297916666700007</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="6"/>
+        <v>6.5371229166700004</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:D28" si="7">B13 / 1000000</f>
+        <v>0.91268749999999998</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="7"/>
+        <v>6.5661750000000003</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>11.9958333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:D29" si="8">B14 / 1000000</f>
+        <v>0.91294583333299995</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="8"/>
+        <v>6.5033333333299996</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
